--- a/Progress_SKK/Database/DB_Restaurant_Delivery.xlsx
+++ b/Progress_SKK/Database/DB_Restaurant_Delivery.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01_8_Web_Dev1\_PRJ_WebDev1\work_SKK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F6714-29CF-4A83-8C67-8C698F9D9F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A496F2B-EB18-4F64-89E9-C5B3734D1B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="4600" windowWidth="27290" windowHeight="14330" activeTab="2" xr2:uid="{4509829A-2284-410C-80B7-E522AD629FE5}"/>
+    <workbookView xWindow="-25965" yWindow="11655" windowWidth="18180" windowHeight="14325" activeTab="3" xr2:uid="{4509829A-2284-410C-80B7-E522AD629FE5}"/>
   </bookViews>
   <sheets>
-    <sheet name="ERD" sheetId="3" r:id="rId1"/>
-    <sheet name="Data_Dictionary" sheetId="2" r:id="rId2"/>
-    <sheet name="DB_Analysis" sheetId="1" r:id="rId3"/>
+    <sheet name="Normalization" sheetId="4" r:id="rId1"/>
+    <sheet name="ERD" sheetId="3" r:id="rId2"/>
+    <sheet name="Data_Dictionary" sheetId="2" r:id="rId3"/>
+    <sheet name="DB_Analysis" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="103">
   <si>
     <t>Step 01 - Determine the purpose of database</t>
   </si>
@@ -290,9 +291,6 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>Step 03 - Determine the Attributes (fields) with PK</t>
-  </si>
-  <si>
     <t>Step 02 - Determine the Entities (tables) necessary</t>
   </si>
   <si>
@@ -459,6 +457,274 @@
   </si>
   <si>
     <t>###</t>
+  </si>
+  <si>
+    <t>Food_Type</t>
+  </si>
+  <si>
+    <t>Order_ADDR</t>
+  </si>
+  <si>
+    <t>500 : Vegiterian,  600 : Seafood,  700 : Meat</t>
+  </si>
+  <si>
+    <t>Varchar(100)</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>Step 03 - Determine the Attributes (fields) necessary</t>
+  </si>
+  <si>
+    <t>Admin_ID (FK)</t>
+  </si>
+  <si>
+    <t>AdminUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin_ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin_ID (FK) </t>
+  </si>
+  <si>
+    <t>Step 05 - ERD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R1 (Users : Orders = M:1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ -&gt; User places one order or many orders. / An order is placed by  a user.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R2 (Order : Menu = M:1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ -&gt; An order contains one or many menus. / A menu is contained within an order.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R3 (Order : Receipt = M:1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ -&gt; A receipt contains one or many orders. / An order is contained within a receipt.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R4 (Receipt : Menu = M:1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ -&gt; A receipt contains one or many menus. / A menu is contained within a receipt.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R5 (Sched_Order : Order = M:1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ -&gt; A schedule of orders allocates one or more orders to a delivery service. / An order is scheduled for a delivery service. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R6 (Sched_Order : Emp_Delivery = M:1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ -&gt; A schedule of orders allocates one or more employees for delivery to a delivery service. / An employee is scheduled for a delivery service.
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R7 (Admin : Emp_Delivery = M:1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ -&gt; An admin manages one or many employees for delivery service. / An employee is managed by an admin.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R8 (Admin : Menu = M:1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ -&gt; An admin manages one or many menus. / A menu is managed by an admin.
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">R9 (Admin : AdminUser = 1:M) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ -&gt; An admin is managed within the AdminUser management table, which maps and manages the relationship between Admin and User. / The AdminUser table contains one or many Admins.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R10 (AdminUser : Users = M:1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ -&gt; A user is managed within the AdminUser management table, which maps and manages the relationship between Admin and User. / The AdminUser table contains one or many Users.
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -559,7 +825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -679,32 +945,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -856,6 +1096,67 @@
       <bottom style="double">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -867,14 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -894,112 +1188,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1012,14 +1287,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,6 +1339,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>61554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EC092C-DA9D-402B-B4BB-0C5B7D851AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="768349"/>
+          <a:ext cx="8991600" cy="8830905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1334,11 +1692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98CD05C-E4A8-4FE0-8C5E-ECB926171F1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3560C3-85D9-4AFB-9EF8-E44866874B65}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1348,12 +1706,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98CD05C-E4A8-4FE0-8C5E-ECB926171F1D}">
+  <dimension ref="A3:P55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:15" s="57" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A3" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+    </row>
+    <row r="54" spans="1:16" ht="250" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+    </row>
+    <row r="55" spans="1:16" ht="250" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A54:P55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0742408F-2577-4547-A43B-4BCC3F6430B9}">
-  <dimension ref="A3:I51"/>
+  <dimension ref="A3:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1361,696 +1796,816 @@
     <col min="1" max="1" width="21.26953125" customWidth="1"/>
     <col min="2" max="2" width="19.08984375" customWidth="1"/>
     <col min="3" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="6" width="15.6328125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="47.08984375" style="55" customWidth="1"/>
+    <col min="5" max="6" width="15.6328125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="47.08984375" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="E5" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="F5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="G5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="43" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="37" t="s">
+      <c r="D6" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="F6" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="39" t="s">
+      <c r="C11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="27" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="19"/>
+      <c r="B15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="28"/>
-      <c r="B15" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="45" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="57" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="56"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="45"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53" t="s">
+      <c r="F30" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="47"/>
+      <c r="F31" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="46"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="46"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="58"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="E39" s="42"/>
+      <c r="F39" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="46"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="48">
+        <v>123.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="48">
+        <v>1234.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="49"/>
+      <c r="B44" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="52"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="5"/>
+      <c r="B45" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="45"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="58"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="57" t="s">
+      <c r="F48" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="53"/>
+      <c r="B49" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="54" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
-      <c r="B31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="58"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="57"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
-      <c r="B37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="58"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="61">
-        <v>123.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
-      <c r="B39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53" t="s">
+      <c r="D49" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
-      <c r="B40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="61">
-        <v>1234.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="57"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" s="56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="11"/>
-      <c r="B45" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="57"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
-      <c r="B49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="58"/>
+      <c r="F49" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="56"/>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
-      <c r="B50" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51" t="s">
+      <c r="B50" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="45"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="7"/>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="46"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="5"/>
+      <c r="B55" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="57"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-    </row>
+      <c r="E55" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="45"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="44"/>
+    </row>
+    <row r="59" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="5"/>
+      <c r="B59" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="45"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:I3"/>
@@ -2059,12 +2614,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D71539-180B-40D9-BE57-9762A7946D73}">
-  <dimension ref="A3:K51"/>
+  <dimension ref="A3:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2077,188 +2632,188 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="26" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="26" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:11" s="14" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="7" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="9" t="s">
+      <c r="J15" s="8"/>
+      <c r="K15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2269,334 +2824,376 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="13" t="s">
+      <c r="G21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="J21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>44</v>
+      <c r="H22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="7" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="10"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="18" t="s">
+      <c r="D24" s="1"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:11" ht="26" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" s="21" t="s">
+      <c r="H31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="7"/>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7"/>
+      <c r="B36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="10"/>
-      <c r="B32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
-      <c r="B33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="10"/>
-      <c r="B35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
-      <c r="B36" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
-      <c r="B37" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
+    <row r="37" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="11"/>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="13" t="s">
+      <c r="G44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="J44" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="G45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="J45" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="7"/>
+      <c r="B46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="7"/>
+      <c r="B47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="10"/>
-      <c r="B46" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="10"/>
-      <c r="B47" s="7" t="s">
+    <row r="48" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7"/>
+      <c r="B48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
-      <c r="B48" s="7" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:K6"/>

--- a/Progress_SKK/Database/DB_Restaurant_Delivery.xlsx
+++ b/Progress_SKK/Database/DB_Restaurant_Delivery.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01_8_Web_Dev1\_PRJ_WebDev1\work_SKK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01_8_Web_Dev1\_PRJ_WebDev1\work_SKK\_Upload_DB_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A496F2B-EB18-4F64-89E9-C5B3734D1B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DEB92F-AA96-4EE4-90C6-14CB3A6486EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25965" yWindow="11655" windowWidth="18180" windowHeight="14325" activeTab="3" xr2:uid="{4509829A-2284-410C-80B7-E522AD629FE5}"/>
+    <workbookView xWindow="4300" yWindow="700" windowWidth="24660" windowHeight="16670" activeTab="5" xr2:uid="{4509829A-2284-410C-80B7-E522AD629FE5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Normalization" sheetId="4" r:id="rId1"/>
-    <sheet name="ERD" sheetId="3" r:id="rId2"/>
-    <sheet name="Data_Dictionary" sheetId="2" r:id="rId3"/>
-    <sheet name="DB_Analysis" sheetId="1" r:id="rId4"/>
+    <sheet name="3NF" sheetId="7" r:id="rId1"/>
+    <sheet name="2NF" sheetId="6" r:id="rId2"/>
+    <sheet name="1NF" sheetId="5" r:id="rId3"/>
+    <sheet name="ERD" sheetId="3" r:id="rId4"/>
+    <sheet name="Data_Dictionary" sheetId="2" r:id="rId5"/>
+    <sheet name="DB_Analysis" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="130">
   <si>
     <t>Step 01 - Determine the purpose of database</t>
   </si>
@@ -726,6 +728,122 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>User_FName</t>
+  </si>
+  <si>
+    <t>User_LName</t>
+  </si>
+  <si>
+    <t>Emp_FName</t>
+  </si>
+  <si>
+    <t>Emp_LName</t>
+  </si>
+  <si>
+    <t>Order_City</t>
+  </si>
+  <si>
+    <t>Order_Province</t>
+  </si>
+  <si>
+    <t>Order_ZIP</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Alias on web service</t>
+  </si>
+  <si>
+    <t>Admin_LogIn_ID</t>
+  </si>
+  <si>
+    <t>Emp_LogIn_ID</t>
+  </si>
+  <si>
+    <t>Email format</t>
+  </si>
+  <si>
+    <t>varchar(60)</t>
+  </si>
+  <si>
+    <t>#####</t>
+  </si>
+  <si>
+    <t>500 : Vegiterian,  600 : Seafood,  700 : Meat , 800 : Beverage</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>400 : Not scheduled,  100 : preparing,  101 : on delivery,  102 : delivered, 200 : picked up</t>
+  </si>
+  <si>
+    <t>FoodCat_ID</t>
+  </si>
+  <si>
+    <t>FoodCat_DESC</t>
+  </si>
+  <si>
+    <t>Food_CAT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 06 - 1NF  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(atomicity of attributes)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 06 - 2NF  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(removed partial dependency)</t>
+    </r>
+  </si>
+  <si>
+    <t>Status_ID</t>
+  </si>
+  <si>
+    <t>Status_DESC</t>
+  </si>
+  <si>
+    <t>User_Alias</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 06 - 3NF  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Not allowing transitive dependancy)</t>
+    </r>
+  </si>
+  <si>
+    <t>500 : Vegetarian,  600 : Seafood,  700 : Meat , 800 : Beverage, 900 : SideDish</t>
+  </si>
 </sst>
 </file>
 
@@ -734,7 +852,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,8 +922,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +981,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -1163,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1312,6 +1487,107 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1385,6 +1661,56 @@
         <a:xfrm>
           <a:off x="685800" y="768349"/>
           <a:ext cx="8991600" cy="8830905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>568656</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E6E426-E50E-446E-A878-2DF07CBA5F2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16300449"/>
+          <a:ext cx="14589456" cy="8350251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1692,103 +2018,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3560C3-85D9-4AFB-9EF8-E44866874B65}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CB9F79-854C-4AE9-A57F-B86F62C2D53D}">
+  <dimension ref="A3:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98CD05C-E4A8-4FE0-8C5E-ECB926171F1D}">
-  <dimension ref="A3:P55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="1:15" s="57" customFormat="1" ht="26" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-    </row>
-    <row r="54" spans="1:16" ht="250" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-    </row>
-    <row r="55" spans="1:16" ht="250" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A54:P55"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0742408F-2577-4547-A43B-4BCC3F6430B9}">
-  <dimension ref="A3:I60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:I3"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1801,17 +2036,3102 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="19"/>
+      <c r="B16" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="53"/>
+      <c r="B20" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="65"/>
+      <c r="B25" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="45"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="46"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="46"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="46"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="46"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="5"/>
+      <c r="B46" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="45"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="7"/>
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="46"/>
+    </row>
+    <row r="51" spans="1:7" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="85"/>
+      <c r="B51" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="7"/>
+      <c r="B52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="48">
+        <v>123.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="7"/>
+      <c r="B53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="48">
+        <v>1234.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="49"/>
+      <c r="B55" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="52"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="5"/>
+      <c r="B56" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="45"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="44"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="5"/>
+      <c r="B60" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="45"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="53"/>
+      <c r="B64" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="56"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="8"/>
+      <c r="B65" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="45"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="68" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="7"/>
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" s="46"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="5"/>
+      <c r="B70" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" s="45"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" s="44"/>
+    </row>
+    <row r="74" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="5"/>
+      <c r="B74" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G74" s="45"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02524538-9011-4418-96B3-6747050C8443}">
+  <dimension ref="A3:I75"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="6" width="15.6328125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="47.08984375" style="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A3" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="19"/>
+      <c r="B16" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="53"/>
+      <c r="B20" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="65"/>
+      <c r="B25" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="45"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="80"/>
+      <c r="E34" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="82"/>
+      <c r="B35" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="46"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="46"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="46"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="46"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="5"/>
+      <c r="B46" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="45"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="7"/>
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="46"/>
+    </row>
+    <row r="51" spans="1:7" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="85"/>
+      <c r="B51" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="7"/>
+      <c r="B52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="48">
+        <v>123.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="7"/>
+      <c r="B53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="48">
+        <v>1234.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="49"/>
+      <c r="B55" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="52"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="5"/>
+      <c r="B56" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="45"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="80"/>
+      <c r="E59" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="44"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="82"/>
+      <c r="B60" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="45"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="53"/>
+      <c r="B64" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="56"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="8"/>
+      <c r="B65" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="45"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="68" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="7"/>
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" s="46"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="5"/>
+      <c r="B70" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" s="45"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" s="44"/>
+    </row>
+    <row r="74" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="5"/>
+      <c r="B74" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G74" s="45"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213A027-15C8-4A1F-AAA5-D78CD8EAB6C2}">
+  <dimension ref="A3:I67"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="6" width="15.6328125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="47.08984375" style="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A3" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="19"/>
+      <c r="B16" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="53"/>
+      <c r="B20" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="65"/>
+      <c r="B25" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="45"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="47"/>
+      <c r="F35" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="46"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="46"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="46"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="46"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="45"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="7"/>
+      <c r="B46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="46"/>
+    </row>
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="7"/>
+      <c r="B47" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="7"/>
+      <c r="B48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="48">
+        <v>123.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="7"/>
+      <c r="B49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="48">
+        <v>1234.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="49"/>
+      <c r="B51" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="52"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="5"/>
+      <c r="B52" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="45"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="53"/>
+      <c r="B56" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="56"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8"/>
+      <c r="B57" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="45"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="7"/>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="46"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="5"/>
+      <c r="B62" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="45"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="65" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="44"/>
+    </row>
+    <row r="66" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="5"/>
+      <c r="B66" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" s="45"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98CD05C-E4A8-4FE0-8C5E-ECB926171F1D}">
+  <dimension ref="A3:P55"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:15" s="57" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A3" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+    </row>
+    <row r="54" spans="1:16" ht="250" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="99"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="99"/>
+      <c r="M54" s="99"/>
+      <c r="N54" s="99"/>
+      <c r="O54" s="99"/>
+      <c r="P54" s="99"/>
+    </row>
+    <row r="55" spans="1:16" ht="250" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="99"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="99"/>
+      <c r="M55" s="99"/>
+      <c r="N55" s="99"/>
+      <c r="O55" s="99"/>
+      <c r="P55" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A54:P55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0742408F-2577-4547-A43B-4BCC3F6430B9}">
+  <dimension ref="A3:I60"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="6" width="15.6328125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="47.08984375" style="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A3" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2614,12 +5934,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D71539-180B-40D9-BE57-9762A7946D73}">
   <dimension ref="A3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2632,71 +5952,71 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="26" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
     </row>
     <row r="9" spans="1:11" ht="26" x14ac:dyDescent="0.35">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:11" s="11" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -2912,17 +6232,17 @@
     </row>
     <row r="26" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:11" ht="26" x14ac:dyDescent="0.35">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="30" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -3047,7 +6367,7 @@
         <v>96</v>
       </c>
       <c r="J36" s="5"/>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="90" t="s">
         <v>45</v>
       </c>
     </row>
